--- a/Determining_the_conjugation_window/plate_map_conjugation_window/Plate_map_conjugation_window.xlsx
+++ b/Determining_the_conjugation_window/plate_map_conjugation_window/Plate_map_conjugation_window.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Determining_the_conjugation_window/plate_map_conjugation_window/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5A352-9A8D-CE4F-BF70-B9BA9F4CE124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F4F17-C7CB-5640-95BF-2C128DE2A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="43820" windowHeight="26800" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="24">
   <si>
     <t>A</t>
   </si>
@@ -69,7 +69,7 @@
         <color rgb="FF1810F0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Donor control</t>
+      <t>mating control (MC)</t>
     </r>
     <r>
       <rPr>
@@ -79,18 +79,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-BK450</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1810F0"/>
+      <t xml:space="preserve"> 
+empty well</t>
+    </r>
+  </si>
+  <si>
+    <t>T = 0 hr</t>
+  </si>
+  <si>
+    <t>T = 1 hr</t>
+  </si>
+  <si>
+    <t>T = 2 hr</t>
+  </si>
+  <si>
+    <t>T = 3 hr</t>
+  </si>
+  <si>
+    <t>All cultures from             dilutions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>mating control (MC)</t>
+      <t>Mating</t>
     </r>
     <r>
       <rPr>
@@ -100,8 +115,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 
-empty well</t>
+      <t xml:space="preserve">
+BK450+451</t>
     </r>
   </si>
   <si>
@@ -111,7 +126,16 @@
         <color rgb="FF1810F0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>MC Donor</t>
+      <t xml:space="preserve">Control
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Donor</t>
     </r>
     <r>
       <rPr>
@@ -132,7 +156,16 @@
         <color rgb="FF1810F0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Recipient control</t>
+      <t xml:space="preserve">Control
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Recipient</t>
     </r>
     <r>
       <rPr>
@@ -148,24 +181,82 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF180FF1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Control </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
       <rPr>
         <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Transconjugant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+BK452</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF1810F0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">Transconjugant
-control
+      <t xml:space="preserve">For MC 
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Donor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">
+BK450</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1810F0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">For MC 
+</t>
     </r>
     <r>
       <rPr>
@@ -173,17 +264,15 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>BK452</t>
-    </r>
-  </si>
-  <si>
+      <t>Recipient</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF1810F0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">MC Recipient </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -201,10 +290,10 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF1810F0"/>
+        <color rgb="FF180FF1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Mating for plating</t>
+      <t xml:space="preserve">For MC </t>
     </r>
     <r>
       <rPr>
@@ -215,26 +304,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-BK450+451</t>
-    </r>
-  </si>
-  <si>
-    <t>T = 0 hr</t>
-  </si>
-  <si>
-    <t>T = 1 hr</t>
-  </si>
-  <si>
-    <t>T = 2 hr</t>
-  </si>
-  <si>
-    <t>T = 3 hr</t>
+Recipient 
+BK451</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF1810F0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">For plating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>Mating</t>
@@ -252,14 +338,14 @@
     </r>
   </si>
   <si>
-    <t>All cultures from             dilutions</t>
+    <t>Information about controls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,13 +378,25 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF1810F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color rgb="FF1810F0"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF180FF1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1810F0"/>
+      <color rgb="FF180FF1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,54 +668,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,6 +715,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,6 +736,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF180FF1"/>
       <color rgb="FFFF7E79"/>
     </mruColors>
   </colors>
@@ -659,8 +761,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="328360" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -702,6 +804,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -741,7 +844,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -805,8 +908,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="328360" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -848,6 +951,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -887,7 +991,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1246,97 +1350,95 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P25"/>
+  <dimension ref="B1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
+      <c r="C2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:16" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>5</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>6</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>7</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>8</v>
       </c>
-      <c r="K4" s="13">
-        <v>9</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="K4" s="12">
+        <v>9</v>
+      </c>
+      <c r="L4" s="11">
         <v>10</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>11</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>12</v>
       </c>
     </row>
@@ -1344,41 +1446,41 @@
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>20</v>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="O5" s="7"/>
     </row>
@@ -1386,41 +1488,41 @@
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>20</v>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="O6" s="7"/>
     </row>
@@ -1428,41 +1530,41 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>20</v>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="O7" s="7"/>
     </row>
@@ -1470,41 +1572,41 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>10</v>
+      <c r="C8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="O8" s="7"/>
     </row>
@@ -1512,41 +1614,41 @@
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>13</v>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -1554,41 +1656,41 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>15</v>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -1596,41 +1698,41 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>15</v>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
@@ -1639,41 +1741,41 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>15</v>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
@@ -1683,79 +1785,79 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
+      <c r="C14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
+      <c r="C15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>4</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>5</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>6</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>7</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>8</v>
       </c>
-      <c r="K16" s="13">
-        <v>9</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="K16" s="12">
+        <v>9</v>
+      </c>
+      <c r="L16" s="11">
         <v>10</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>11</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>12</v>
       </c>
     </row>
@@ -1763,362 +1865,367 @@
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>20</v>
+      <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>20</v>
+      <c r="C18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>20</v>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>10</v>
+      <c r="C20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>13</v>
+      <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>15</v>
+      <c r="C22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>15</v>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>15</v>
+      <c r="C24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="28" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C2:N2"/>
     <mergeCell ref="C25:N25"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Determining_the_conjugation_window/plate_map_conjugation_window/Plate_map_conjugation_window.xlsx
+++ b/Determining_the_conjugation_window/plate_map_conjugation_window/Plate_map_conjugation_window.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Determining_the_conjugation_window/plate_map_conjugation_window/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F4F17-C7CB-5640-95BF-2C128DE2A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA99FE-E649-D341-9AC4-51276E88E338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="43820" windowHeight="26800" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -96,9 +96,6 @@
     <t>T = 3 hr</t>
   </si>
   <si>
-    <t>All cultures from             dilutions</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -339,6 +336,12 @@
   </si>
   <si>
     <t>Information about controls</t>
+  </si>
+  <si>
+    <t>Experiment 2: all cultures from             dilutions</t>
+  </si>
+  <si>
+    <t>Experiment 1: all cultures from             dilutions</t>
   </si>
 </sst>
 </file>
@@ -704,8 +707,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,16 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -756,13 +759,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>46566</xdr:colOff>
+      <xdr:colOff>508384</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="328360" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -776,7 +779,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5708649" y="237067"/>
+              <a:off x="6246475" y="244764"/>
               <a:ext cx="328360" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -844,7 +847,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -858,7 +861,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5708649" y="237067"/>
+              <a:off x="6246475" y="244764"/>
               <a:ext cx="328360" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -886,6 +889,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -903,13 +907,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>507423</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="328360" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -923,7 +927,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5719233" y="5507567"/>
+              <a:off x="6245514" y="5590309"/>
               <a:ext cx="328360" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -991,7 +995,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1005,7 +1009,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5719233" y="5507567"/>
+              <a:off x="6245514" y="5590309"/>
               <a:ext cx="328360" cy="175369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1033,6 +1037,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1353,7 +1358,7 @@
   <dimension ref="B1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N26"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,42 +1371,42 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
+      <c r="C2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="25" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="25" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="2:16" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -1447,40 +1452,40 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="7"/>
     </row>
@@ -1489,40 +1494,40 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="7"/>
     </row>
@@ -1531,40 +1536,40 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="7"/>
     </row>
@@ -1615,40 +1620,40 @@
         <v>4</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="L9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -1657,40 +1662,40 @@
         <v>5</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="K10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="N10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -1699,40 +1704,40 @@
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="N11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
@@ -1742,40 +1747,40 @@
         <v>7</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
@@ -1785,42 +1790,42 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
+      <c r="C14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="25" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
@@ -1866,40 +1871,40 @@
         <v>0</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="30" x14ac:dyDescent="0.2">
@@ -1907,40 +1912,40 @@
         <v>2</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="30" x14ac:dyDescent="0.2">
@@ -1948,40 +1953,40 @@
         <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="45" x14ac:dyDescent="0.2">
@@ -2030,40 +2035,40 @@
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="L21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="45" x14ac:dyDescent="0.2">
@@ -2071,40 +2076,40 @@
         <v>5</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="H22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="K22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="N22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="45" x14ac:dyDescent="0.2">
@@ -2112,40 +2117,40 @@
         <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="H23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="K23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="N23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -2153,76 +2158,76 @@
         <v>7</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="28" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C2:N2"/>
     <mergeCell ref="C25:N25"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
